--- a/vehicle_counts.xlsx
+++ b/vehicle_counts.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\countool\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\carCountTool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97EDE775-3A4B-4D6E-91E8-C86180727777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51282BA9-2D2A-43DC-AC4D-349064EC38CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,27 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$265</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Time Period</t>
   </si>
@@ -47,45 +60,6 @@
   </si>
   <si>
     <t>Xe chở lớn</t>
-  </si>
-  <si>
-    <t>7:00 - 7:15</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>D2</t>
-  </si>
-  <si>
-    <t>D3</t>
-  </si>
-  <si>
-    <t>D4</t>
-  </si>
-  <si>
-    <t>D5</t>
-  </si>
-  <si>
-    <t>D6</t>
-  </si>
-  <si>
-    <t>D7</t>
-  </si>
-  <si>
-    <t>D8</t>
-  </si>
-  <si>
-    <t>D9</t>
-  </si>
-  <si>
-    <t>D10</t>
-  </si>
-  <si>
-    <t>D11</t>
-  </si>
-  <si>
-    <t>D12</t>
   </si>
 </sst>
 </file>
@@ -448,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -492,320 +466,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2">
-        <v>4</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4">
-        <v>8</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5">
-        <v>5</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6">
-        <v>56</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>8</v>
-      </c>
-      <c r="F6">
-        <v>6</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7">
-        <v>10</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>3</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:H37" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:H265" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H265">
+      <sortCondition ref="A1:A265"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/vehicle_counts.xlsx
+++ b/vehicle_counts.xlsx
@@ -1,88 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\carCountTool\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51282BA9-2D2A-43DC-AC4D-349064EC38CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$265</definedName>
-  </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>Time Period</t>
-  </si>
-  <si>
-    <t>Direction</t>
-  </si>
-  <si>
-    <t>Xe hơi</t>
-  </si>
-  <si>
-    <t>Xe bus nhỏ</t>
-  </si>
-  <si>
-    <t>Xe bus lớn</t>
-  </si>
-  <si>
-    <t>Xe chở nhỏ</t>
-  </si>
-  <si>
-    <t>Xe chở trung</t>
-  </si>
-  <si>
-    <t>Xe chở lớn</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -97,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -421,57 +420,62 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="31.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" customWidth="1"/>
-    <col min="3" max="3" width="33.42578125" customWidth="1"/>
-    <col min="4" max="4" width="24.5703125" customWidth="1"/>
-    <col min="5" max="5" width="27.42578125" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Time Period</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Direction</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Xe hơi</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Xe bus nhỏ</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Xe bus lớn</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Xe chở nhỏ</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Xe chở trung</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Xe chở lớn</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H265" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H265">
-      <sortCondition ref="A1:A265"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/vehicle_counts.xlsx
+++ b/vehicle_counts.xlsx
@@ -2,15 +2,16 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet1'!$A$1:$H$205</definedName>
+  </definedNames>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -26,7 +27,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
       <b val="1"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
@@ -46,10 +49,19 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -62,7 +74,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -421,17 +433,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H205"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col width="16.28515625" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="13.7109375" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="11.42578125" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="15.28515625" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="15" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="15.5703125" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="16.85546875" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="15.28515625" bestFit="1" customWidth="1" min="8" max="8"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -475,7 +497,6134 @@
         </is>
       </c>
     </row>
+    <row r="2" hidden="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>17:00 - 17:15</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>17:00 - 17:15</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" hidden="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>17:00 - 17:15</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>D3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" hidden="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>17:00 - 17:15</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>D4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" hidden="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>17:00 - 17:15</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>D5</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" hidden="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>17:00 - 17:15</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>D6</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>33</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" hidden="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>17:00 - 17:15</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>D7</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" hidden="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>17:00 - 17:15</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>D8</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>4</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" hidden="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>17:00 - 17:15</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>D9</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" hidden="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>17:00 - 17:15</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>D10</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" hidden="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>17:00 - 17:15</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>D11</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" hidden="1">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>17:00 - 17:15</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>D12</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" hidden="1">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>17:15 - 17:30</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>17:15 - 17:30</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>5</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" hidden="1">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>17:15 - 17:30</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>D3</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" hidden="1">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>17:15 - 17:30</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>D4</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" hidden="1">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>17:15 - 17:30</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>D5</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" hidden="1">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>17:15 - 17:30</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>D6</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>25</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" hidden="1">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>17:15 - 17:30</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>D7</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>7</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" hidden="1">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>17:15 - 17:30</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>D8</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>3</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" hidden="1">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>17:15 - 17:30</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>D9</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" hidden="1">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>17:15 - 17:30</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>D10</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" hidden="1">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>17:15 - 17:30</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>D11</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" hidden="1">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>17:15 - 17:30</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>D12</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" hidden="1">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>17:30 - 17:45</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>17:30 - 17:45</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" hidden="1">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>17:30 - 17:45</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>D3</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" hidden="1">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>17:30 - 17:45</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>D4</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" hidden="1">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>17:30 - 17:45</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>D5</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" hidden="1">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>17:30 - 17:45</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>D6</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>35</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" hidden="1">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>17:30 - 17:45</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>D7</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>6</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" hidden="1">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>17:30 - 17:45</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>D8</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>5</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" hidden="1">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>17:30 - 17:45</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>D9</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" hidden="1">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>17:30 - 17:45</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>D10</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" hidden="1">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>17:30 - 17:45</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>D11</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" hidden="1">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>17:30 - 17:45</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>D12</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" hidden="1">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>17:45 - 18:00</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>17:45 - 18:00</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>3</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" hidden="1">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>17:45 - 18:00</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>D3</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" hidden="1">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>17:45 - 18:00</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>D4</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" hidden="1">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>17:45 - 18:00</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>D5</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" hidden="1">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>17:45 - 18:00</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>D6</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>34</v>
+      </c>
+      <c r="D43" t="n">
+        <v>2</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" hidden="1">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>17:45 - 18:00</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>D7</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>4</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" hidden="1">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>17:45 - 18:00</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>D8</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>3</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" hidden="1">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>17:45 - 18:00</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>D9</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" hidden="1">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>17:45 - 18:00</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>D10</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" hidden="1">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>17:45 - 18:00</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>D11</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" hidden="1">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>17:45 - 18:00</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>D12</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" hidden="1">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>18:00 - 18:15</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>18:00 - 18:15</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>2</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" hidden="1">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>18:00 - 18:15</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>D3</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" hidden="1">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>18:00 - 18:15</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>D4</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" hidden="1">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>18:00 - 18:15</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>D5</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" hidden="1">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>18:00 - 18:15</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>D6</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>52</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>2</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" hidden="1">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>18:00 - 18:15</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>D7</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>9</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>1</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" hidden="1">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>18:00 - 18:15</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>D8</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>5</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" hidden="1">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>18:00 - 18:15</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>D9</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>0</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" hidden="1">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>18:00 - 18:15</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>D10</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>0</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" hidden="1">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>18:00 - 18:15</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>D11</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>0</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" hidden="1">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>18:00 - 18:15</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>D12</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>0</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" hidden="1">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>18:15 - 18:30</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>0</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>18:15 - 18:30</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>0</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" hidden="1">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>18:15 - 18:30</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>D3</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>0</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" hidden="1">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>18:15 - 18:30</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>D4</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>0</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" hidden="1">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>18:15 - 18:30</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>D5</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>0</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" hidden="1">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>18:15 - 18:30</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>D6</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>0</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" hidden="1">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>18:15 - 18:30</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>D7</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>0</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" hidden="1">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>18:15 - 18:30</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>D8</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>0</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" hidden="1">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>18:15 - 18:30</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>D9</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>0</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" hidden="1">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>18:15 - 18:30</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>D10</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>0</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" hidden="1">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>18:15 - 18:30</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>D11</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>0</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" hidden="1">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>18:15 - 18:30</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>D12</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>0</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" hidden="1">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>18:15 - 18:30</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>0</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>18:15 - 18:30</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>2</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0</v>
+      </c>
+      <c r="F75" t="n">
+        <v>1</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" hidden="1">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>18:15 - 18:30</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>D3</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>0</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" hidden="1">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>18:15 - 18:30</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>D4</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>1</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" hidden="1">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>18:15 - 18:30</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>D5</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>0</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" hidden="1">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>18:15 - 18:30</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>D6</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>38</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0</v>
+      </c>
+      <c r="F79" t="n">
+        <v>1</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" hidden="1">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>18:15 - 18:30</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>D7</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>6</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" hidden="1">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>18:15 - 18:30</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>D8</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>1</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0</v>
+      </c>
+      <c r="F81" t="n">
+        <v>2</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" hidden="1">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>18:15 - 18:30</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>D9</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>0</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" hidden="1">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>18:15 - 18:30</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>D10</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>0</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" hidden="1">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>18:15 - 18:30</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>D11</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>0</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" hidden="1">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>18:15 - 18:30</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>D12</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>0</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" hidden="1">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>18:30 - 18:45</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>0</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>18:30 - 18:45</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>0</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0</v>
+      </c>
+      <c r="F87" t="n">
+        <v>1</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" hidden="1">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>18:30 - 18:45</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>D3</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>0</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" hidden="1">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>18:30 - 18:45</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>D4</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>2</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" hidden="1">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>18:30 - 18:45</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>D5</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>0</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" hidden="1">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>18:30 - 18:45</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>D6</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>38</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0</v>
+      </c>
+      <c r="F91" t="n">
+        <v>2</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" hidden="1">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>18:30 - 18:45</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>D7</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>6</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" hidden="1">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>18:30 - 18:45</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>D8</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>3</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" hidden="1">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>18:30 - 18:45</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>D9</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>0</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" hidden="1">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>18:30 - 18:45</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>D10</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>0</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" hidden="1">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>18:30 - 18:45</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>D11</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>0</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" hidden="1">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>18:30 - 18:45</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>D12</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>0</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" hidden="1">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>18:45 - 19:00</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>0</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>18:45 - 19:00</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>0</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" hidden="1">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>18:45 - 19:00</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>D3</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>0</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" hidden="1">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>18:45 - 19:00</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>D4</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>0</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" hidden="1">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>18:45 - 19:00</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>D5</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>0</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" hidden="1">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>18:45 - 19:00</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>D6</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>22</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0</v>
+      </c>
+      <c r="F103" t="n">
+        <v>2</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" hidden="1">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>18:45 - 19:00</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>D7</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>2</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0</v>
+      </c>
+      <c r="F104" t="n">
+        <v>2</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" hidden="1">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>18:45 - 19:00</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>D8</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>1</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" hidden="1">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>18:45 - 19:00</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>D9</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>0</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" hidden="1">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>18:45 - 19:00</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>D10</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>0</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" hidden="1">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>18:45 - 19:00</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>D11</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>0</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" hidden="1">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>18:45 - 19:00</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>D12</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>0</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>7:00 - 7:15</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>0</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>7:00 - 7:15</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>0</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>7:00 - 7:15</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>D3</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>0</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0</v>
+      </c>
+      <c r="F112" t="n">
+        <v>1</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>7:00 - 7:15</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>D4</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>1</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>7:00 - 7:15</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>D5</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>0</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>7:00 - 7:15</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>D6</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>2</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0</v>
+      </c>
+      <c r="F115" t="n">
+        <v>1</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>7:00 - 7:15</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>D7</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>5</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>7:00 - 7:15</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>D8</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>4</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0</v>
+      </c>
+      <c r="F117" t="n">
+        <v>1</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>7:00 - 7:15</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>D9</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>0</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0</v>
+      </c>
+      <c r="G118" t="n">
+        <v>0</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>7:00 - 7:15</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>D10</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>0</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>7:00 - 7:15</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>D11</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>0</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>7:00 - 7:15</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>D12</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>0</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>7:15 - 7:30</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>0</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0</v>
+      </c>
+      <c r="G122" t="n">
+        <v>0</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>7:15 - 7:30</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>0</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0</v>
+      </c>
+      <c r="G123" t="n">
+        <v>0</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>7:15 - 7:30</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>D3</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>0</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0</v>
+      </c>
+      <c r="G124" t="n">
+        <v>0</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>7:15 - 7:30</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>D4</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>0</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0</v>
+      </c>
+      <c r="G125" t="n">
+        <v>0</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>7:15 - 7:30</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>D5</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>0</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0</v>
+      </c>
+      <c r="G126" t="n">
+        <v>0</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>7:15 - 7:30</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>D6</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>12</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0</v>
+      </c>
+      <c r="F127" t="n">
+        <v>4</v>
+      </c>
+      <c r="G127" t="n">
+        <v>0</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>7:15 - 7:30</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>D7</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>7</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0</v>
+      </c>
+      <c r="F128" t="n">
+        <v>3</v>
+      </c>
+      <c r="G128" t="n">
+        <v>0</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>7:15 - 7:30</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>D8</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>3</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0</v>
+      </c>
+      <c r="G129" t="n">
+        <v>0</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>7:15 - 7:30</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>D9</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>0</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0</v>
+      </c>
+      <c r="G130" t="n">
+        <v>0</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>7:15 - 7:30</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>D10</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>0</v>
+      </c>
+      <c r="D131" t="n">
+        <v>0</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0</v>
+      </c>
+      <c r="G131" t="n">
+        <v>0</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>7:15 - 7:30</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>D11</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>0</v>
+      </c>
+      <c r="D132" t="n">
+        <v>0</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0</v>
+      </c>
+      <c r="G132" t="n">
+        <v>0</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>7:15 - 7:30</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>D12</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>0</v>
+      </c>
+      <c r="D133" t="n">
+        <v>0</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0</v>
+      </c>
+      <c r="G133" t="n">
+        <v>0</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>7:30 - 7:45</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>0</v>
+      </c>
+      <c r="D134" t="n">
+        <v>0</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0</v>
+      </c>
+      <c r="G134" t="n">
+        <v>0</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>7:30 - 7:45</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>4</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0</v>
+      </c>
+      <c r="G135" t="n">
+        <v>0</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>7:30 - 7:45</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>D3</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>0</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0</v>
+      </c>
+      <c r="G136" t="n">
+        <v>0</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>7:30 - 7:45</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>D4</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>0</v>
+      </c>
+      <c r="D137" t="n">
+        <v>0</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0</v>
+      </c>
+      <c r="G137" t="n">
+        <v>0</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>7:30 - 7:45</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>D5</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>0</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0</v>
+      </c>
+      <c r="G138" t="n">
+        <v>0</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>7:30 - 7:45</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>D6</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>12</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0</v>
+      </c>
+      <c r="F139" t="n">
+        <v>2</v>
+      </c>
+      <c r="G139" t="n">
+        <v>0</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>7:30 - 7:45</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>D7</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>11</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0</v>
+      </c>
+      <c r="G140" t="n">
+        <v>0</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>7:30 - 7:45</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>D8</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>9</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0</v>
+      </c>
+      <c r="G141" t="n">
+        <v>0</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>7:30 - 7:45</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>D9</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>0</v>
+      </c>
+      <c r="D142" t="n">
+        <v>0</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0</v>
+      </c>
+      <c r="G142" t="n">
+        <v>0</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>7:30 - 7:45</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>D10</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>0</v>
+      </c>
+      <c r="D143" t="n">
+        <v>0</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0</v>
+      </c>
+      <c r="G143" t="n">
+        <v>0</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>7:30 - 7:45</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>D11</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>0</v>
+      </c>
+      <c r="D144" t="n">
+        <v>0</v>
+      </c>
+      <c r="E144" t="n">
+        <v>0</v>
+      </c>
+      <c r="F144" t="n">
+        <v>0</v>
+      </c>
+      <c r="G144" t="n">
+        <v>0</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>7:30 - 7:45</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>D12</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>0</v>
+      </c>
+      <c r="D145" t="n">
+        <v>0</v>
+      </c>
+      <c r="E145" t="n">
+        <v>0</v>
+      </c>
+      <c r="F145" t="n">
+        <v>0</v>
+      </c>
+      <c r="G145" t="n">
+        <v>0</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>7:45 - 8:00</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>0</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0</v>
+      </c>
+      <c r="E146" t="n">
+        <v>0</v>
+      </c>
+      <c r="F146" t="n">
+        <v>0</v>
+      </c>
+      <c r="G146" t="n">
+        <v>0</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>7:45 - 8:00</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>1</v>
+      </c>
+      <c r="D147" t="n">
+        <v>0</v>
+      </c>
+      <c r="E147" t="n">
+        <v>0</v>
+      </c>
+      <c r="F147" t="n">
+        <v>0</v>
+      </c>
+      <c r="G147" t="n">
+        <v>0</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>7:45 - 8:00</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>D3</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>0</v>
+      </c>
+      <c r="D148" t="n">
+        <v>0</v>
+      </c>
+      <c r="E148" t="n">
+        <v>0</v>
+      </c>
+      <c r="F148" t="n">
+        <v>0</v>
+      </c>
+      <c r="G148" t="n">
+        <v>0</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>7:45 - 8:00</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>D4</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>0</v>
+      </c>
+      <c r="D149" t="n">
+        <v>0</v>
+      </c>
+      <c r="E149" t="n">
+        <v>0</v>
+      </c>
+      <c r="F149" t="n">
+        <v>0</v>
+      </c>
+      <c r="G149" t="n">
+        <v>0</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>7:45 - 8:00</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>D5</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>0</v>
+      </c>
+      <c r="D150" t="n">
+        <v>0</v>
+      </c>
+      <c r="E150" t="n">
+        <v>0</v>
+      </c>
+      <c r="F150" t="n">
+        <v>0</v>
+      </c>
+      <c r="G150" t="n">
+        <v>0</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>7:45 - 8:00</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>D6</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>14</v>
+      </c>
+      <c r="D151" t="n">
+        <v>0</v>
+      </c>
+      <c r="E151" t="n">
+        <v>0</v>
+      </c>
+      <c r="F151" t="n">
+        <v>2</v>
+      </c>
+      <c r="G151" t="n">
+        <v>0</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>7:45 - 8:00</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>D7</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
+        <v>7</v>
+      </c>
+      <c r="D152" t="n">
+        <v>0</v>
+      </c>
+      <c r="E152" t="n">
+        <v>0</v>
+      </c>
+      <c r="F152" t="n">
+        <v>0</v>
+      </c>
+      <c r="G152" t="n">
+        <v>0</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>7:45 - 8:00</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>D8</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>4</v>
+      </c>
+      <c r="D153" t="n">
+        <v>0</v>
+      </c>
+      <c r="E153" t="n">
+        <v>0</v>
+      </c>
+      <c r="F153" t="n">
+        <v>0</v>
+      </c>
+      <c r="G153" t="n">
+        <v>0</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>7:45 - 8:00</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>D9</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
+        <v>0</v>
+      </c>
+      <c r="D154" t="n">
+        <v>0</v>
+      </c>
+      <c r="E154" t="n">
+        <v>0</v>
+      </c>
+      <c r="F154" t="n">
+        <v>0</v>
+      </c>
+      <c r="G154" t="n">
+        <v>0</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>7:45 - 8:00</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>D10</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
+        <v>0</v>
+      </c>
+      <c r="D155" t="n">
+        <v>0</v>
+      </c>
+      <c r="E155" t="n">
+        <v>0</v>
+      </c>
+      <c r="F155" t="n">
+        <v>0</v>
+      </c>
+      <c r="G155" t="n">
+        <v>0</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>7:45 - 8:00</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>D11</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>0</v>
+      </c>
+      <c r="D156" t="n">
+        <v>0</v>
+      </c>
+      <c r="E156" t="n">
+        <v>0</v>
+      </c>
+      <c r="F156" t="n">
+        <v>0</v>
+      </c>
+      <c r="G156" t="n">
+        <v>0</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>7:45 - 8:00</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>D12</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
+        <v>0</v>
+      </c>
+      <c r="D157" t="n">
+        <v>0</v>
+      </c>
+      <c r="E157" t="n">
+        <v>0</v>
+      </c>
+      <c r="F157" t="n">
+        <v>0</v>
+      </c>
+      <c r="G157" t="n">
+        <v>0</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>8:00 - 8:15</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
+        <v>0</v>
+      </c>
+      <c r="D158" t="n">
+        <v>0</v>
+      </c>
+      <c r="E158" t="n">
+        <v>0</v>
+      </c>
+      <c r="F158" t="n">
+        <v>0</v>
+      </c>
+      <c r="G158" t="n">
+        <v>0</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>8:00 - 8:15</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
+        <v>1</v>
+      </c>
+      <c r="D159" t="n">
+        <v>0</v>
+      </c>
+      <c r="E159" t="n">
+        <v>0</v>
+      </c>
+      <c r="F159" t="n">
+        <v>0</v>
+      </c>
+      <c r="G159" t="n">
+        <v>0</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>8:00 - 8:15</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>D3</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
+        <v>0</v>
+      </c>
+      <c r="D160" t="n">
+        <v>0</v>
+      </c>
+      <c r="E160" t="n">
+        <v>0</v>
+      </c>
+      <c r="F160" t="n">
+        <v>0</v>
+      </c>
+      <c r="G160" t="n">
+        <v>0</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>8:00 - 8:15</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>D4</t>
+        </is>
+      </c>
+      <c r="C161" t="n">
+        <v>0</v>
+      </c>
+      <c r="D161" t="n">
+        <v>0</v>
+      </c>
+      <c r="E161" t="n">
+        <v>0</v>
+      </c>
+      <c r="F161" t="n">
+        <v>0</v>
+      </c>
+      <c r="G161" t="n">
+        <v>0</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>8:00 - 8:15</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>D5</t>
+        </is>
+      </c>
+      <c r="C162" t="n">
+        <v>0</v>
+      </c>
+      <c r="D162" t="n">
+        <v>0</v>
+      </c>
+      <c r="E162" t="n">
+        <v>0</v>
+      </c>
+      <c r="F162" t="n">
+        <v>0</v>
+      </c>
+      <c r="G162" t="n">
+        <v>0</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>8:00 - 8:15</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>D6</t>
+        </is>
+      </c>
+      <c r="C163" t="n">
+        <v>16</v>
+      </c>
+      <c r="D163" t="n">
+        <v>2</v>
+      </c>
+      <c r="E163" t="n">
+        <v>0</v>
+      </c>
+      <c r="F163" t="n">
+        <v>0</v>
+      </c>
+      <c r="G163" t="n">
+        <v>0</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>8:00 - 8:15</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>D7</t>
+        </is>
+      </c>
+      <c r="C164" t="n">
+        <v>9</v>
+      </c>
+      <c r="D164" t="n">
+        <v>1</v>
+      </c>
+      <c r="E164" t="n">
+        <v>0</v>
+      </c>
+      <c r="F164" t="n">
+        <v>0</v>
+      </c>
+      <c r="G164" t="n">
+        <v>0</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>8:00 - 8:15</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>D8</t>
+        </is>
+      </c>
+      <c r="C165" t="n">
+        <v>7</v>
+      </c>
+      <c r="D165" t="n">
+        <v>0</v>
+      </c>
+      <c r="E165" t="n">
+        <v>0</v>
+      </c>
+      <c r="F165" t="n">
+        <v>0</v>
+      </c>
+      <c r="G165" t="n">
+        <v>0</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>8:00 - 8:15</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>D9</t>
+        </is>
+      </c>
+      <c r="C166" t="n">
+        <v>0</v>
+      </c>
+      <c r="D166" t="n">
+        <v>0</v>
+      </c>
+      <c r="E166" t="n">
+        <v>0</v>
+      </c>
+      <c r="F166" t="n">
+        <v>0</v>
+      </c>
+      <c r="G166" t="n">
+        <v>0</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>8:00 - 8:15</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>D10</t>
+        </is>
+      </c>
+      <c r="C167" t="n">
+        <v>0</v>
+      </c>
+      <c r="D167" t="n">
+        <v>0</v>
+      </c>
+      <c r="E167" t="n">
+        <v>0</v>
+      </c>
+      <c r="F167" t="n">
+        <v>0</v>
+      </c>
+      <c r="G167" t="n">
+        <v>0</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>8:00 - 8:15</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>D11</t>
+        </is>
+      </c>
+      <c r="C168" t="n">
+        <v>0</v>
+      </c>
+      <c r="D168" t="n">
+        <v>0</v>
+      </c>
+      <c r="E168" t="n">
+        <v>0</v>
+      </c>
+      <c r="F168" t="n">
+        <v>0</v>
+      </c>
+      <c r="G168" t="n">
+        <v>0</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>8:00 - 8:15</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>D12</t>
+        </is>
+      </c>
+      <c r="C169" t="n">
+        <v>0</v>
+      </c>
+      <c r="D169" t="n">
+        <v>0</v>
+      </c>
+      <c r="E169" t="n">
+        <v>0</v>
+      </c>
+      <c r="F169" t="n">
+        <v>0</v>
+      </c>
+      <c r="G169" t="n">
+        <v>0</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>8:15 - 8:30</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="C170" t="n">
+        <v>0</v>
+      </c>
+      <c r="D170" t="n">
+        <v>0</v>
+      </c>
+      <c r="E170" t="n">
+        <v>0</v>
+      </c>
+      <c r="F170" t="n">
+        <v>0</v>
+      </c>
+      <c r="G170" t="n">
+        <v>0</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>8:15 - 8:30</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
+      <c r="C171" t="n">
+        <v>3</v>
+      </c>
+      <c r="D171" t="n">
+        <v>0</v>
+      </c>
+      <c r="E171" t="n">
+        <v>0</v>
+      </c>
+      <c r="F171" t="n">
+        <v>0</v>
+      </c>
+      <c r="G171" t="n">
+        <v>0</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>8:15 - 8:30</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>D3</t>
+        </is>
+      </c>
+      <c r="C172" t="n">
+        <v>0</v>
+      </c>
+      <c r="D172" t="n">
+        <v>0</v>
+      </c>
+      <c r="E172" t="n">
+        <v>0</v>
+      </c>
+      <c r="F172" t="n">
+        <v>0</v>
+      </c>
+      <c r="G172" t="n">
+        <v>0</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>8:15 - 8:30</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>D4</t>
+        </is>
+      </c>
+      <c r="C173" t="n">
+        <v>0</v>
+      </c>
+      <c r="D173" t="n">
+        <v>0</v>
+      </c>
+      <c r="E173" t="n">
+        <v>0</v>
+      </c>
+      <c r="F173" t="n">
+        <v>1</v>
+      </c>
+      <c r="G173" t="n">
+        <v>0</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>8:15 - 8:30</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>D5</t>
+        </is>
+      </c>
+      <c r="C174" t="n">
+        <v>0</v>
+      </c>
+      <c r="D174" t="n">
+        <v>0</v>
+      </c>
+      <c r="E174" t="n">
+        <v>0</v>
+      </c>
+      <c r="F174" t="n">
+        <v>0</v>
+      </c>
+      <c r="G174" t="n">
+        <v>0</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>8:15 - 8:30</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>D6</t>
+        </is>
+      </c>
+      <c r="C175" t="n">
+        <v>10</v>
+      </c>
+      <c r="D175" t="n">
+        <v>0</v>
+      </c>
+      <c r="E175" t="n">
+        <v>0</v>
+      </c>
+      <c r="F175" t="n">
+        <v>1</v>
+      </c>
+      <c r="G175" t="n">
+        <v>0</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>8:15 - 8:30</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>D7</t>
+        </is>
+      </c>
+      <c r="C176" t="n">
+        <v>12</v>
+      </c>
+      <c r="D176" t="n">
+        <v>1</v>
+      </c>
+      <c r="E176" t="n">
+        <v>0</v>
+      </c>
+      <c r="F176" t="n">
+        <v>0</v>
+      </c>
+      <c r="G176" t="n">
+        <v>0</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>8:15 - 8:30</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>D8</t>
+        </is>
+      </c>
+      <c r="C177" t="n">
+        <v>6</v>
+      </c>
+      <c r="D177" t="n">
+        <v>0</v>
+      </c>
+      <c r="E177" t="n">
+        <v>0</v>
+      </c>
+      <c r="F177" t="n">
+        <v>0</v>
+      </c>
+      <c r="G177" t="n">
+        <v>0</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>8:15 - 8:30</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>D9</t>
+        </is>
+      </c>
+      <c r="C178" t="n">
+        <v>0</v>
+      </c>
+      <c r="D178" t="n">
+        <v>0</v>
+      </c>
+      <c r="E178" t="n">
+        <v>0</v>
+      </c>
+      <c r="F178" t="n">
+        <v>0</v>
+      </c>
+      <c r="G178" t="n">
+        <v>0</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>8:15 - 8:30</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>D10</t>
+        </is>
+      </c>
+      <c r="C179" t="n">
+        <v>0</v>
+      </c>
+      <c r="D179" t="n">
+        <v>0</v>
+      </c>
+      <c r="E179" t="n">
+        <v>0</v>
+      </c>
+      <c r="F179" t="n">
+        <v>0</v>
+      </c>
+      <c r="G179" t="n">
+        <v>0</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>8:15 - 8:30</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>D11</t>
+        </is>
+      </c>
+      <c r="C180" t="n">
+        <v>0</v>
+      </c>
+      <c r="D180" t="n">
+        <v>0</v>
+      </c>
+      <c r="E180" t="n">
+        <v>0</v>
+      </c>
+      <c r="F180" t="n">
+        <v>0</v>
+      </c>
+      <c r="G180" t="n">
+        <v>0</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>8:15 - 8:30</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>D12</t>
+        </is>
+      </c>
+      <c r="C181" t="n">
+        <v>0</v>
+      </c>
+      <c r="D181" t="n">
+        <v>0</v>
+      </c>
+      <c r="E181" t="n">
+        <v>0</v>
+      </c>
+      <c r="F181" t="n">
+        <v>0</v>
+      </c>
+      <c r="G181" t="n">
+        <v>0</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>8:30 - 8:45</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="C182" t="n">
+        <v>0</v>
+      </c>
+      <c r="D182" t="n">
+        <v>0</v>
+      </c>
+      <c r="E182" t="n">
+        <v>0</v>
+      </c>
+      <c r="F182" t="n">
+        <v>0</v>
+      </c>
+      <c r="G182" t="n">
+        <v>0</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>8:30 - 8:45</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
+      <c r="C183" t="n">
+        <v>0</v>
+      </c>
+      <c r="D183" t="n">
+        <v>0</v>
+      </c>
+      <c r="E183" t="n">
+        <v>0</v>
+      </c>
+      <c r="F183" t="n">
+        <v>0</v>
+      </c>
+      <c r="G183" t="n">
+        <v>0</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>8:30 - 8:45</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>D3</t>
+        </is>
+      </c>
+      <c r="C184" t="n">
+        <v>0</v>
+      </c>
+      <c r="D184" t="n">
+        <v>0</v>
+      </c>
+      <c r="E184" t="n">
+        <v>0</v>
+      </c>
+      <c r="F184" t="n">
+        <v>0</v>
+      </c>
+      <c r="G184" t="n">
+        <v>0</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>8:30 - 8:45</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>D4</t>
+        </is>
+      </c>
+      <c r="C185" t="n">
+        <v>1</v>
+      </c>
+      <c r="D185" t="n">
+        <v>0</v>
+      </c>
+      <c r="E185" t="n">
+        <v>0</v>
+      </c>
+      <c r="F185" t="n">
+        <v>0</v>
+      </c>
+      <c r="G185" t="n">
+        <v>0</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>8:30 - 8:45</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>D5</t>
+        </is>
+      </c>
+      <c r="C186" t="n">
+        <v>0</v>
+      </c>
+      <c r="D186" t="n">
+        <v>0</v>
+      </c>
+      <c r="E186" t="n">
+        <v>0</v>
+      </c>
+      <c r="F186" t="n">
+        <v>0</v>
+      </c>
+      <c r="G186" t="n">
+        <v>0</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>8:30 - 8:45</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>D6</t>
+        </is>
+      </c>
+      <c r="C187" t="n">
+        <v>14</v>
+      </c>
+      <c r="D187" t="n">
+        <v>1</v>
+      </c>
+      <c r="E187" t="n">
+        <v>0</v>
+      </c>
+      <c r="F187" t="n">
+        <v>0</v>
+      </c>
+      <c r="G187" t="n">
+        <v>0</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>8:30 - 8:45</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>D7</t>
+        </is>
+      </c>
+      <c r="C188" t="n">
+        <v>8</v>
+      </c>
+      <c r="D188" t="n">
+        <v>1</v>
+      </c>
+      <c r="E188" t="n">
+        <v>0</v>
+      </c>
+      <c r="F188" t="n">
+        <v>1</v>
+      </c>
+      <c r="G188" t="n">
+        <v>0</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>8:30 - 8:45</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>D8</t>
+        </is>
+      </c>
+      <c r="C189" t="n">
+        <v>8</v>
+      </c>
+      <c r="D189" t="n">
+        <v>0</v>
+      </c>
+      <c r="E189" t="n">
+        <v>0</v>
+      </c>
+      <c r="F189" t="n">
+        <v>1</v>
+      </c>
+      <c r="G189" t="n">
+        <v>0</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>8:30 - 8:45</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>D9</t>
+        </is>
+      </c>
+      <c r="C190" t="n">
+        <v>0</v>
+      </c>
+      <c r="D190" t="n">
+        <v>0</v>
+      </c>
+      <c r="E190" t="n">
+        <v>0</v>
+      </c>
+      <c r="F190" t="n">
+        <v>0</v>
+      </c>
+      <c r="G190" t="n">
+        <v>0</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>8:30 - 8:45</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>D10</t>
+        </is>
+      </c>
+      <c r="C191" t="n">
+        <v>0</v>
+      </c>
+      <c r="D191" t="n">
+        <v>0</v>
+      </c>
+      <c r="E191" t="n">
+        <v>0</v>
+      </c>
+      <c r="F191" t="n">
+        <v>0</v>
+      </c>
+      <c r="G191" t="n">
+        <v>0</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>8:30 - 8:45</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>D11</t>
+        </is>
+      </c>
+      <c r="C192" t="n">
+        <v>0</v>
+      </c>
+      <c r="D192" t="n">
+        <v>0</v>
+      </c>
+      <c r="E192" t="n">
+        <v>0</v>
+      </c>
+      <c r="F192" t="n">
+        <v>0</v>
+      </c>
+      <c r="G192" t="n">
+        <v>0</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>8:30 - 8:45</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>D12</t>
+        </is>
+      </c>
+      <c r="C193" t="n">
+        <v>0</v>
+      </c>
+      <c r="D193" t="n">
+        <v>0</v>
+      </c>
+      <c r="E193" t="n">
+        <v>0</v>
+      </c>
+      <c r="F193" t="n">
+        <v>0</v>
+      </c>
+      <c r="G193" t="n">
+        <v>0</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>8:45 - 9:00</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="C194" t="n">
+        <v>0</v>
+      </c>
+      <c r="D194" t="n">
+        <v>0</v>
+      </c>
+      <c r="E194" t="n">
+        <v>0</v>
+      </c>
+      <c r="F194" t="n">
+        <v>0</v>
+      </c>
+      <c r="G194" t="n">
+        <v>0</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>8:45 - 9:00</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
+      <c r="C195" t="n">
+        <v>1</v>
+      </c>
+      <c r="D195" t="n">
+        <v>0</v>
+      </c>
+      <c r="E195" t="n">
+        <v>0</v>
+      </c>
+      <c r="F195" t="n">
+        <v>1</v>
+      </c>
+      <c r="G195" t="n">
+        <v>0</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>8:45 - 9:00</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>D3</t>
+        </is>
+      </c>
+      <c r="C196" t="n">
+        <v>0</v>
+      </c>
+      <c r="D196" t="n">
+        <v>0</v>
+      </c>
+      <c r="E196" t="n">
+        <v>0</v>
+      </c>
+      <c r="F196" t="n">
+        <v>0</v>
+      </c>
+      <c r="G196" t="n">
+        <v>0</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>8:45 - 9:00</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>D4</t>
+        </is>
+      </c>
+      <c r="C197" t="n">
+        <v>0</v>
+      </c>
+      <c r="D197" t="n">
+        <v>0</v>
+      </c>
+      <c r="E197" t="n">
+        <v>0</v>
+      </c>
+      <c r="F197" t="n">
+        <v>0</v>
+      </c>
+      <c r="G197" t="n">
+        <v>0</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>8:45 - 9:00</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>D5</t>
+        </is>
+      </c>
+      <c r="C198" t="n">
+        <v>0</v>
+      </c>
+      <c r="D198" t="n">
+        <v>0</v>
+      </c>
+      <c r="E198" t="n">
+        <v>0</v>
+      </c>
+      <c r="F198" t="n">
+        <v>0</v>
+      </c>
+      <c r="G198" t="n">
+        <v>0</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>8:45 - 9:00</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>D6</t>
+        </is>
+      </c>
+      <c r="C199" t="n">
+        <v>10</v>
+      </c>
+      <c r="D199" t="n">
+        <v>2</v>
+      </c>
+      <c r="E199" t="n">
+        <v>0</v>
+      </c>
+      <c r="F199" t="n">
+        <v>0</v>
+      </c>
+      <c r="G199" t="n">
+        <v>0</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>8:45 - 9:00</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>D7</t>
+        </is>
+      </c>
+      <c r="C200" t="n">
+        <v>11</v>
+      </c>
+      <c r="D200" t="n">
+        <v>1</v>
+      </c>
+      <c r="E200" t="n">
+        <v>0</v>
+      </c>
+      <c r="F200" t="n">
+        <v>0</v>
+      </c>
+      <c r="G200" t="n">
+        <v>0</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>8:45 - 9:00</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>D8</t>
+        </is>
+      </c>
+      <c r="C201" t="n">
+        <v>3</v>
+      </c>
+      <c r="D201" t="n">
+        <v>0</v>
+      </c>
+      <c r="E201" t="n">
+        <v>0</v>
+      </c>
+      <c r="F201" t="n">
+        <v>1</v>
+      </c>
+      <c r="G201" t="n">
+        <v>0</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>8:45 - 9:00</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>D9</t>
+        </is>
+      </c>
+      <c r="C202" t="n">
+        <v>0</v>
+      </c>
+      <c r="D202" t="n">
+        <v>0</v>
+      </c>
+      <c r="E202" t="n">
+        <v>0</v>
+      </c>
+      <c r="F202" t="n">
+        <v>0</v>
+      </c>
+      <c r="G202" t="n">
+        <v>0</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>8:45 - 9:00</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>D10</t>
+        </is>
+      </c>
+      <c r="C203" t="n">
+        <v>0</v>
+      </c>
+      <c r="D203" t="n">
+        <v>0</v>
+      </c>
+      <c r="E203" t="n">
+        <v>0</v>
+      </c>
+      <c r="F203" t="n">
+        <v>0</v>
+      </c>
+      <c r="G203" t="n">
+        <v>0</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>8:45 - 9:00</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>D11</t>
+        </is>
+      </c>
+      <c r="C204" t="n">
+        <v>0</v>
+      </c>
+      <c r="D204" t="n">
+        <v>0</v>
+      </c>
+      <c r="E204" t="n">
+        <v>0</v>
+      </c>
+      <c r="F204" t="n">
+        <v>0</v>
+      </c>
+      <c r="G204" t="n">
+        <v>0</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>8:45 - 9:00</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>D12</t>
+        </is>
+      </c>
+      <c r="C205" t="n">
+        <v>0</v>
+      </c>
+      <c r="D205" t="n">
+        <v>0</v>
+      </c>
+      <c r="E205" t="n">
+        <v>0</v>
+      </c>
+      <c r="F205" t="n">
+        <v>0</v>
+      </c>
+      <c r="G205" t="n">
+        <v>0</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:H205">
+    <filterColumn colId="1" hiddenButton="0" showButton="1">
+      <filters>
+        <filter val="D2"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>